--- a/Documentation (Standups, user stories, retros, etc)/Acceptance Tests/User Acceptance Testing (Group 9).xlsx
+++ b/Documentation (Standups, user stories, retros, etc)/Acceptance Tests/User Acceptance Testing (Group 9).xlsx
@@ -785,8 +785,8 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <sz val="11.0"/>
-      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1235,7 +1235,10 @@
     <xf borderId="21" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="22" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="22" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="20" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1307,9 +1310,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="35" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="36" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1820,8 +1820,8 @@
         <v>14</v>
       </c>
       <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="7"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
@@ -1849,10 +1849,10 @@
         <v>15</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -1876,17 +1876,17 @@
       <c r="A11" s="28">
         <v>3.0</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
@@ -1909,17 +1909,17 @@
       <c r="A12" s="28">
         <v>4.0</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -1979,8 +1979,8 @@
         <v>14</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="7"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -2008,11 +2008,11 @@
         <v>15</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
@@ -2035,16 +2035,16 @@
       <c r="A16" s="28">
         <v>3.0</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="7"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -2068,17 +2068,17 @@
       <c r="A17" s="28">
         <v>4.0</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -2137,9 +2137,9 @@
       <c r="D19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="7"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -2167,11 +2167,11 @@
         <v>15</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -2194,17 +2194,17 @@
       <c r="A21" s="28">
         <v>3.0</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -2227,17 +2227,17 @@
       <c r="A22" s="28">
         <v>4.0</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -2296,9 +2296,9 @@
       <c r="D24" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="39"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="7"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
@@ -2326,11 +2326,11 @@
         <v>15</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -2353,17 +2353,17 @@
       <c r="A26" s="28">
         <v>3.0</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -2386,17 +2386,17 @@
       <c r="A27" s="28">
         <v>4.0</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -2416,7 +2416,7 @@
       <c r="Y27" s="25"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="43" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="27"/>
@@ -2439,16 +2439,16 @@
       <c r="A29" s="28">
         <v>1.0</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36" t="s">
+      <c r="C29" s="36"/>
+      <c r="D29" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="39"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="7"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -2463,17 +2463,17 @@
       <c r="A30" s="28">
         <v>2.0</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="36"/>
+      <c r="D30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -2487,17 +2487,17 @@
       <c r="A31" s="28">
         <v>3.0</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36" t="s">
+      <c r="C31" s="36"/>
+      <c r="D31" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -2531,16 +2531,16 @@
       <c r="A33" s="28">
         <v>1.0</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="36" t="s">
+      <c r="C33" s="45"/>
+      <c r="D33" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="39"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="7"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
@@ -2552,20 +2552,20 @@
       <c r="P33" s="25"/>
     </row>
     <row r="34" ht="40.5" customHeight="1">
-      <c r="A34" s="45">
+      <c r="A34" s="46">
         <v>2.0</v>
       </c>
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="36" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -2585,20 +2585,20 @@
       <c r="Y34" s="25"/>
     </row>
     <row r="35" ht="44.25" customHeight="1">
-      <c r="A35" s="45">
+      <c r="A35" s="46">
         <v>3.0</v>
       </c>
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="36" t="s">
+      <c r="C35" s="45"/>
+      <c r="D35" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="41"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -2650,16 +2650,16 @@
       <c r="A37" s="28">
         <v>1.0</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="45"/>
+      <c r="D37" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="39"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="7"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -2680,20 +2680,20 @@
       <c r="Y37" s="5"/>
     </row>
     <row r="38" ht="25.5" customHeight="1">
-      <c r="A38" s="45">
+      <c r="A38" s="46">
         <v>2.0</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="46" t="s">
+      <c r="C38" s="45"/>
+      <c r="D38" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="41"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2713,20 +2713,20 @@
       <c r="Y38" s="5"/>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="A39" s="45">
+      <c r="A39" s="46">
         <v>3.0</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="36" t="s">
+      <c r="C39" s="45"/>
+      <c r="D39" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="41"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -2746,20 +2746,20 @@
       <c r="Y39" s="5"/>
     </row>
     <row r="40" ht="25.5" customHeight="1">
-      <c r="A40" s="45">
+      <c r="A40" s="46">
         <v>4.0</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="36" t="s">
+      <c r="C40" s="45"/>
+      <c r="D40" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="41"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -2779,19 +2779,19 @@
       <c r="Y40" s="5"/>
     </row>
     <row r="41" ht="31.5" customHeight="1">
-      <c r="A41" s="47">
+      <c r="A41" s="48">
         <v>5.0</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="36" t="s">
+      <c r="C41" s="45"/>
+      <c r="D41" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="39"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="7"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
@@ -2851,9 +2851,9 @@
       <c r="D43" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="39"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="7"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -2874,18 +2874,18 @@
       <c r="Y43" s="5"/>
     </row>
     <row r="44" ht="22.5" customHeight="1">
-      <c r="A44" s="45">
+      <c r="A44" s="46">
         <v>2.0</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -2905,20 +2905,20 @@
       <c r="Y44" s="5"/>
     </row>
     <row r="45" ht="22.5" customHeight="1">
-      <c r="A45" s="45">
+      <c r="A45" s="46">
         <v>3.0</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="36" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="42"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -2938,20 +2938,20 @@
       <c r="Y45" s="5"/>
     </row>
     <row r="46" ht="48.0" customHeight="1">
-      <c r="A46" s="45">
+      <c r="A46" s="46">
         <v>4.0</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="36" t="s">
+      <c r="C46" s="36"/>
+      <c r="D46" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="41"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -3003,16 +3003,16 @@
       <c r="A48" s="28">
         <v>1.0</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="36" t="s">
+      <c r="C48" s="45"/>
+      <c r="D48" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="39"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="7"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -3033,20 +3033,20 @@
       <c r="Y48" s="5"/>
     </row>
     <row r="49" ht="51.75" customHeight="1">
-      <c r="A49" s="45">
+      <c r="A49" s="46">
         <v>2.0</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="36" t="s">
+      <c r="C49" s="51"/>
+      <c r="D49" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="41"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -3098,16 +3098,16 @@
       <c r="A51" s="28">
         <v>1.0</v>
       </c>
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="39"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="7"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -3128,20 +3128,20 @@
       <c r="Y51" s="5"/>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="A52" s="45">
+      <c r="A52" s="46">
         <v>2.0</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55" t="s">
+      <c r="C52" s="55"/>
+      <c r="D52" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="41"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -3161,20 +3161,20 @@
       <c r="Y52" s="5"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="45">
+      <c r="A53" s="46">
         <v>3.0</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="56" t="s">
+      <c r="C53" s="55"/>
+      <c r="D53" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="41"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -3194,20 +3194,20 @@
       <c r="Y53" s="5"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="45">
+      <c r="A54" s="46">
         <v>4.0</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="55"/>
+      <c r="D54" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="41"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -3227,7 +3227,7 @@
       <c r="Y54" s="5"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="43" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="27"/>
@@ -3259,16 +3259,16 @@
       <c r="A56" s="28">
         <v>1.0</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="59" t="s">
+      <c r="C56" s="45"/>
+      <c r="D56" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="39"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="40"/>
       <c r="H56" s="7"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -3289,20 +3289,20 @@
       <c r="Y56" s="5"/>
     </row>
     <row r="57" ht="45.0" customHeight="1">
-      <c r="A57" s="45">
+      <c r="A57" s="46">
         <v>2.0</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="59" t="s">
+      <c r="C57" s="45"/>
+      <c r="D57" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="41"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -3322,20 +3322,20 @@
       <c r="Y57" s="5"/>
     </row>
     <row r="58" ht="51.75" customHeight="1">
-      <c r="A58" s="45">
+      <c r="A58" s="46">
         <v>3.0</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="59" t="s">
+      <c r="C58" s="45"/>
+      <c r="D58" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="41"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -3355,7 +3355,7 @@
       <c r="Y58" s="5"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="43" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="27"/>
@@ -3387,16 +3387,16 @@
       <c r="A60" s="28">
         <v>1.0</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="59" t="s">
+      <c r="C60" s="45"/>
+      <c r="D60" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="39"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="7"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
@@ -3417,20 +3417,20 @@
       <c r="Y60" s="5"/>
     </row>
     <row r="61" ht="33.75" customHeight="1">
-      <c r="A61" s="45">
+      <c r="A61" s="46">
         <v>2.0</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="59" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="41"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="42"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -3450,20 +3450,20 @@
       <c r="Y61" s="5"/>
     </row>
     <row r="62" ht="45.75" customHeight="1">
-      <c r="A62" s="45">
+      <c r="A62" s="46">
         <v>3.0</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="59" t="s">
+      <c r="C62" s="45"/>
+      <c r="D62" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="41"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="42"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -3483,7 +3483,7 @@
       <c r="Y62" s="5"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="42" t="s">
+      <c r="A63" s="43" t="s">
         <v>74</v>
       </c>
       <c r="B63" s="27"/>
@@ -3515,16 +3515,16 @@
       <c r="A64" s="28">
         <v>1.0</v>
       </c>
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="59" t="s">
+      <c r="C64" s="45"/>
+      <c r="D64" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="39"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="7"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
@@ -3545,20 +3545,20 @@
       <c r="Y64" s="5"/>
     </row>
     <row r="65" ht="39.0" customHeight="1">
-      <c r="A65" s="45">
+      <c r="A65" s="46">
         <v>2.0</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="59" t="s">
+      <c r="C65" s="45"/>
+      <c r="D65" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="41"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="42"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -3578,20 +3578,20 @@
       <c r="Y65" s="5"/>
     </row>
     <row r="66" ht="45.75" customHeight="1">
-      <c r="A66" s="45">
+      <c r="A66" s="46">
         <v>3.0</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="59" t="s">
+      <c r="C66" s="45"/>
+      <c r="D66" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="41"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -3611,7 +3611,7 @@
       <c r="Y66" s="5"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="43" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="27"/>
@@ -3643,16 +3643,16 @@
       <c r="A68" s="28">
         <v>1.0</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="39"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="40"/>
       <c r="H68" s="7"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
@@ -3673,18 +3673,18 @@
       <c r="Y68" s="5"/>
     </row>
     <row r="69" ht="22.5" customHeight="1">
-      <c r="A69" s="45">
+      <c r="A69" s="46">
         <v>2.0</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="41"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
@@ -3704,20 +3704,20 @@
       <c r="Y69" s="5"/>
     </row>
     <row r="70" ht="22.5" customHeight="1">
-      <c r="A70" s="45">
+      <c r="A70" s="46">
         <v>3.0</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="36" t="s">
+      <c r="C70" s="55"/>
+      <c r="D70" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="41"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="42"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
@@ -3737,20 +3737,20 @@
       <c r="Y70" s="5"/>
     </row>
     <row r="71" ht="28.5" customHeight="1">
-      <c r="A71" s="45">
+      <c r="A71" s="46">
         <v>4.0</v>
       </c>
       <c r="B71" s="60" t="s">
         <v>82</v>
       </c>
       <c r="C71" s="61"/>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="41"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="42"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
@@ -3770,19 +3770,19 @@
       <c r="Y71" s="5"/>
     </row>
     <row r="72" ht="42.0" customHeight="1">
-      <c r="A72" s="47">
+      <c r="A72" s="48">
         <v>5.0</v>
       </c>
       <c r="B72" s="62" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="36" t="s">
+      <c r="D72" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="39"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="40"/>
       <c r="H72" s="7"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -3836,7 +3836,7 @@
       <c r="Y73" s="5"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="42" t="s">
+      <c r="A74" s="43" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="27"/>
@@ -3868,16 +3868,16 @@
       <c r="A75" s="28">
         <v>1.0</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="36" t="s">
+      <c r="C75" s="45"/>
+      <c r="D75" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="39"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="40"/>
       <c r="H75" s="7"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -3898,20 +3898,20 @@
       <c r="Y75" s="5"/>
     </row>
     <row r="76" ht="22.5" customHeight="1">
-      <c r="A76" s="45">
+      <c r="A76" s="46">
         <v>2.0</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="36" t="s">
+      <c r="C76" s="45"/>
+      <c r="D76" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="41"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
@@ -3931,20 +3931,20 @@
       <c r="Y76" s="5"/>
     </row>
     <row r="77" ht="32.25" customHeight="1">
-      <c r="A77" s="45">
+      <c r="A77" s="46">
         <v>3.0</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="36" t="s">
+      <c r="C77" s="45"/>
+      <c r="D77" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="41"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
@@ -3964,7 +3964,7 @@
       <c r="Y77" s="5"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B78" s="27"/>
@@ -3996,16 +3996,16 @@
       <c r="A79" s="28">
         <v>1.0</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="36" t="s">
+      <c r="C79" s="45"/>
+      <c r="D79" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="39"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="40"/>
       <c r="H79" s="7"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -4026,20 +4026,20 @@
       <c r="Y79" s="5"/>
     </row>
     <row r="80" ht="22.5" customHeight="1">
-      <c r="A80" s="45">
+      <c r="A80" s="46">
         <v>2.0</v>
       </c>
-      <c r="B80" s="43" t="s">
+      <c r="B80" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="36" t="s">
+      <c r="C80" s="45"/>
+      <c r="D80" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="41"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="42"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -4059,20 +4059,20 @@
       <c r="Y80" s="5"/>
     </row>
     <row r="81" ht="22.5" customHeight="1">
-      <c r="A81" s="45">
+      <c r="A81" s="46">
         <v>3.0</v>
       </c>
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="36" t="s">
+      <c r="C81" s="45"/>
+      <c r="D81" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="40"/>
-      <c r="H81" s="41"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
@@ -4092,20 +4092,20 @@
       <c r="Y81" s="5"/>
     </row>
     <row r="82" ht="33.0" customHeight="1">
-      <c r="A82" s="45">
+      <c r="A82" s="46">
         <v>4.0</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B82" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C82" s="44"/>
-      <c r="D82" s="36" t="s">
+      <c r="C82" s="45"/>
+      <c r="D82" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="41"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="42"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
@@ -4125,7 +4125,7 @@
       <c r="Y82" s="5"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="42" t="s">
+      <c r="A83" s="43" t="s">
         <v>102</v>
       </c>
       <c r="B83" s="27"/>
@@ -4157,16 +4157,16 @@
       <c r="A84" s="28">
         <v>1.0</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="36" t="s">
+      <c r="C84" s="45"/>
+      <c r="D84" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="39"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="40"/>
       <c r="H84" s="7"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -4187,20 +4187,20 @@
       <c r="Y84" s="5"/>
     </row>
     <row r="85" ht="22.5" customHeight="1">
-      <c r="A85" s="45">
+      <c r="A85" s="46">
         <v>2.0</v>
       </c>
-      <c r="B85" s="43" t="s">
+      <c r="B85" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="36" t="s">
+      <c r="C85" s="45"/>
+      <c r="D85" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="40"/>
-      <c r="H85" s="41"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="42"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -4220,20 +4220,20 @@
       <c r="Y85" s="5"/>
     </row>
     <row r="86" ht="22.5" customHeight="1">
-      <c r="A86" s="45">
+      <c r="A86" s="46">
         <v>3.0</v>
       </c>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="C86" s="44"/>
-      <c r="D86" s="36" t="s">
+      <c r="C86" s="45"/>
+      <c r="D86" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="40"/>
-      <c r="H86" s="41"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
@@ -4253,20 +4253,20 @@
       <c r="Y86" s="5"/>
     </row>
     <row r="87" ht="30.0" customHeight="1">
-      <c r="A87" s="45">
+      <c r="A87" s="46">
         <v>4.0</v>
       </c>
-      <c r="B87" s="43" t="s">
+      <c r="B87" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="C87" s="44"/>
-      <c r="D87" s="36" t="s">
+      <c r="C87" s="45"/>
+      <c r="D87" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="41"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="42"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -4286,7 +4286,7 @@
       <c r="Y87" s="5"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="42" t="s">
+      <c r="A88" s="43" t="s">
         <v>107</v>
       </c>
       <c r="B88" s="27"/>
@@ -4318,16 +4318,16 @@
       <c r="A89" s="28">
         <v>1.0</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C89" s="44"/>
-      <c r="D89" s="36" t="s">
+      <c r="C89" s="45"/>
+      <c r="D89" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="39"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="40"/>
       <c r="H89" s="7"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -4348,20 +4348,20 @@
       <c r="Y89" s="5"/>
     </row>
     <row r="90" ht="30.0" customHeight="1">
-      <c r="A90" s="45">
+      <c r="A90" s="46">
         <v>2.0</v>
       </c>
-      <c r="B90" s="43" t="s">
+      <c r="B90" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C90" s="44"/>
-      <c r="D90" s="36" t="s">
+      <c r="C90" s="45"/>
+      <c r="D90" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="41"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="42"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
@@ -4381,20 +4381,20 @@
       <c r="Y90" s="5"/>
     </row>
     <row r="91" ht="43.5" customHeight="1">
-      <c r="A91" s="45">
+      <c r="A91" s="46">
         <v>3.0</v>
       </c>
-      <c r="B91" s="43" t="s">
+      <c r="B91" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="36" t="s">
+      <c r="C91" s="45"/>
+      <c r="D91" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="41"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="42"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
@@ -4414,7 +4414,7 @@
       <c r="Y91" s="5"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="42" t="s">
+      <c r="A92" s="43" t="s">
         <v>112</v>
       </c>
       <c r="B92" s="27"/>
@@ -4446,16 +4446,16 @@
       <c r="A93" s="28">
         <v>1.0</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C93" s="44"/>
-      <c r="D93" s="36" t="s">
+      <c r="C93" s="45"/>
+      <c r="D93" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="39"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="40"/>
       <c r="H93" s="7"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
@@ -4476,20 +4476,20 @@
       <c r="Y93" s="5"/>
     </row>
     <row r="94" ht="40.5" customHeight="1">
-      <c r="A94" s="45">
+      <c r="A94" s="46">
         <v>2.0</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="36" t="s">
+      <c r="C94" s="45"/>
+      <c r="D94" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="41"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="42"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
@@ -4509,20 +4509,20 @@
       <c r="Y94" s="5"/>
     </row>
     <row r="95" ht="42.0" customHeight="1">
-      <c r="A95" s="45">
+      <c r="A95" s="46">
         <v>3.0</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="36" t="s">
+      <c r="C95" s="45"/>
+      <c r="D95" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="41"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="42"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
@@ -4542,7 +4542,7 @@
       <c r="Y95" s="5"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="42" t="s">
+      <c r="A96" s="43" t="s">
         <v>119</v>
       </c>
       <c r="B96" s="27"/>
@@ -4574,16 +4574,16 @@
       <c r="A97" s="28">
         <v>1.0</v>
       </c>
-      <c r="B97" s="43" t="s">
+      <c r="B97" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C97" s="44"/>
-      <c r="D97" s="59" t="s">
+      <c r="C97" s="45"/>
+      <c r="D97" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="39"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="40"/>
       <c r="H97" s="7"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
@@ -4604,20 +4604,20 @@
       <c r="Y97" s="5"/>
     </row>
     <row r="98" ht="22.5" customHeight="1">
-      <c r="A98" s="45">
+      <c r="A98" s="46">
         <v>2.0</v>
       </c>
       <c r="B98" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="59" t="s">
+      <c r="C98" s="55"/>
+      <c r="D98" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="40"/>
-      <c r="H98" s="41"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="42"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -4637,20 +4637,20 @@
       <c r="Y98" s="5"/>
     </row>
     <row r="99" ht="35.25" customHeight="1">
-      <c r="A99" s="45">
+      <c r="A99" s="46">
         <v>3.0</v>
       </c>
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C99" s="44"/>
-      <c r="D99" s="59" t="s">
+      <c r="C99" s="45"/>
+      <c r="D99" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="41"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="42"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -28029,7 +28029,6 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="A55:H55"/>
     <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="A47:H47"/>
     <mergeCell ref="B48:C48"/>
@@ -28041,15 +28040,28 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="A63:H63"/>
     <mergeCell ref="B64:C64"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="B65:C65"/>
     <mergeCell ref="B66:C66"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="G84:H84"/>
     <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="B72:C72"/>
@@ -28065,34 +28077,21 @@
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B86:C86"/>
     <mergeCell ref="B87:C87"/>
+    <mergeCell ref="A88:H88"/>
     <mergeCell ref="B89:C89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
+    <mergeCell ref="A92:H92"/>
     <mergeCell ref="B93:C93"/>
+    <mergeCell ref="G93:H93"/>
     <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="A67:H67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="G93:H93"/>
     <mergeCell ref="A96:H96"/>
     <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="G84:H84"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -28135,9 +28134,10 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.5118110236220472" footer="0.0" header="0.0" left="0.2362204724409449" right="0.2362204724409449" top="0.2362204724409449"/>
